--- a/Doc/G100_PCT_ModBusSlaveAddress.xlsx
+++ b/Doc/G100_PCT_ModBusSlaveAddress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作文档\RD-2018-052(光纤切割)\FiberCut_E150\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DC9F6876-774C-4942-AD16-8ECFC8C06F52}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9E6BFD94-2035-4B9D-B76B-34968BC3F9A6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,28 +391,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:G19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -747,10 +747,10 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -771,10 +771,10 @@
       <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="14"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
@@ -790,14 +790,14 @@
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
@@ -809,12 +809,12 @@
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="5"/>
       <c r="I5" s="10" t="s">
         <v>16</v>
@@ -824,14 +824,14 @@
       <c r="A6" s="3">
         <v>10</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="5" t="s">
         <v>18</v>
       </c>
@@ -840,14 +840,14 @@
       <c r="A7" s="3">
         <v>11</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="5" t="s">
         <v>20</v>
       </c>
@@ -856,14 +856,14 @@
       <c r="A8" s="3">
         <v>12</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="5" t="s">
         <v>20</v>
       </c>
@@ -872,14 +872,14 @@
       <c r="A9" s="3">
         <v>13</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="5" t="s">
         <v>20</v>
       </c>
@@ -888,14 +888,14 @@
       <c r="A10" s="3">
         <v>14</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="5" t="s">
         <v>20</v>
       </c>
@@ -904,14 +904,14 @@
       <c r="A11" s="3">
         <v>15</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="5" t="s">
         <v>20</v>
       </c>
@@ -920,14 +920,14 @@
       <c r="A12" s="3">
         <v>16</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="5" t="s">
         <v>20</v>
       </c>
@@ -936,14 +936,14 @@
       <c r="A13" s="3">
         <v>17</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="5" t="s">
         <v>20</v>
       </c>
@@ -952,14 +952,14 @@
       <c r="A14" s="3">
         <v>18</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="5" t="s">
         <v>20</v>
       </c>
@@ -968,14 +968,14 @@
       <c r="A15" s="3">
         <v>19</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="5" t="s">
         <v>18</v>
       </c>
@@ -984,432 +984,522 @@
       <c r="A16" s="3">
         <v>20</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>21</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>22</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>23</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>10</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I21">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>11</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I22">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>12</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I23">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>13</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I24">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>14</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I25">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>15</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I26">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>16</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I27">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>17</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I28">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>18</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="4" t="s">
         <v>39</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I29">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>19</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="4" t="s">
         <v>39</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I30">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>20</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I31">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>21</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="4" t="s">
         <v>39</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I32">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>22</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I33">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>23</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I34">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>24</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I35">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>25</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I36">
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>26</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
       <c r="H37" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I37">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>27</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
       <c r="H38" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I38">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>28</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
       <c r="H39" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I39">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <v>29</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
       <c r="H40" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="I40">
+        <v>45672</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="B39:G39"/>
@@ -1419,36 +1509,6 @@
     <mergeCell ref="B34:F34"/>
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
